--- a/pywebio1/表格下载/UPF.xlsx
+++ b/pywebio1/表格下载/UPF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code_exercise\Python\webio_test\表格下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code_exercise\pywebio\pywebio1\表格下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848A739-3678-4CC6-88AB-5A920B5FC9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B4E1FC-D806-432C-8451-B1458EF0FEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3460" windowWidth="16200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,63 +672,6 @@
     <xf numFmtId="177" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -740,6 +683,63 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1057,97 +1057,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="14.5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17" ht="14.5">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="79" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82" t="s">
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="85"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" ht="43.5">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="9" spans="1:17" ht="14.5">
       <c r="A9" s="45"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="47" t="s">
@@ -1313,7 +1313,7 @@
     </row>
     <row r="10" spans="1:17" ht="14.5">
       <c r="A10" s="45"/>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="68" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="40"/>
@@ -1401,7 +1401,7 @@
       <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" ht="15.5">
-      <c r="A13" s="88"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="46" t="s">
         <v>41</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" ht="14.5">
-      <c r="A15" s="89"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="55"/>
       <c r="C15" s="41" t="s">
         <v>30</v>
